--- a/archivosProyecto/diccionarioDatos.xlsx
+++ b/archivosProyecto/diccionarioDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGamer\Documents\Paginas\BdmPdcwiProyecto\archivosProyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGamer\Documents\GitHub\BdmPdcwiProyecto\archivosProyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29188F0-DEB6-4F69-9712-FC58B45DF92E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185DC10-7AE1-4FBE-90A4-8DAD565FDFDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="4245" windowWidth="19515" windowHeight="11385" xr2:uid="{174D2A9D-7D84-477F-BB24-D0239B0A305E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{174D2A9D-7D84-477F-BB24-D0239B0A305E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="77">
   <si>
     <t>nombre</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Alias del usuario</t>
-  </si>
-  <si>
-    <t>VARBINARY</t>
   </si>
   <si>
     <t>BLOB</t>
@@ -901,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F69B9E-E0F8-4030-8587-6B483F8EA2FD}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -956,19 +953,19 @@
     </row>
     <row r="4" spans="1:11" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>20</v>
@@ -988,7 +985,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -997,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10">
         <v>50</v>
@@ -1020,16 +1017,16 @@
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="14">
         <v>200</v>
@@ -1052,19 +1049,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>20</v>
@@ -1084,19 +1081,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>21</v>
@@ -1111,24 +1108,24 @@
         <v>15</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>21</v>
@@ -1140,24 +1137,24 @@
         <v>21</v>
       </c>
       <c r="J9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="14">
         <v>250</v>
@@ -1180,19 +1177,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>20</v>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>0</v>
@@ -1221,7 +1218,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="10">
         <v>70</v>
@@ -1244,16 +1241,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="10">
         <v>200</v>
@@ -1276,16 +1273,16 @@
     </row>
     <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="10">
         <v>255</v>
@@ -1308,16 +1305,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="10">
         <v>255</v>
@@ -1341,19 +1338,19 @@
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>20</v>
@@ -1374,19 +1371,19 @@
     <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="F17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>20</v>
@@ -1407,19 +1404,19 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>21</v>
@@ -1434,24 +1431,24 @@
         <v>15</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>20</v>
@@ -1471,19 +1468,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B20" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>21</v>
@@ -1498,24 +1495,24 @@
         <v>15</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>21</v>
@@ -1527,24 +1524,24 @@
         <v>21</v>
       </c>
       <c r="J21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B22" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="14">
         <v>10</v>
@@ -1567,19 +1564,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>20</v>
@@ -1599,19 +1596,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>21</v>
@@ -1623,24 +1620,24 @@
         <v>21</v>
       </c>
       <c r="J24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="10">
         <v>255</v>
@@ -1663,16 +1660,16 @@
     </row>
     <row r="26" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="F26" s="10">
         <v>255</v>
@@ -1695,19 +1692,19 @@
     </row>
     <row r="27" spans="1:11" ht="31.5" x14ac:dyDescent="0.4">
       <c r="B27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>20</v>
@@ -1727,19 +1724,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>20</v>
@@ -1759,19 +1756,19 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>21</v>
@@ -1783,27 +1780,27 @@
         <v>21</v>
       </c>
       <c r="J29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>21</v>
@@ -1815,10 +1812,10 @@
         <v>21</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -1826,16 +1823,16 @@
         <v>15</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>20</v>
@@ -1986,13 +1983,13 @@
         <v>15</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="F36" s="10">
         <v>2</v>
@@ -2021,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>26</v>
@@ -2053,10 +2050,10 @@
         <v>18</v>
       </c>
       <c r="D38" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="F38" s="22">
         <v>255</v>

--- a/archivosProyecto/diccionarioDatos.xlsx
+++ b/archivosProyecto/diccionarioDatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGamer\Documents\GitHub\BdmPdcwiProyecto\archivosProyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185DC10-7AE1-4FBE-90A4-8DAD565FDFDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9144969-1174-429F-818B-A4E118ABDF72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{174D2A9D-7D84-477F-BB24-D0239B0A305E}"/>
+    <workbookView xWindow="7140" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{174D2A9D-7D84-477F-BB24-D0239B0A305E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="78">
   <si>
     <t>nombre</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>El numero total de niveles</t>
+  </si>
+  <si>
+    <t>VARCHAR, UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -898,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F69B9E-E0F8-4030-8587-6B483F8EA2FD}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1954,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>25</v>
